--- a/diet_schedule.xlsx
+++ b/diet_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01:08 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,58 +463,92 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Have oatmeal with fruit 🍎</t>
+          <t>Good morning! This is Rahul, your personal assistant. It’s time for breakfast — enjoy a wholesome bowl of oats porridge with milk, banana, and peanut butter 🍌🥛🥜, along with one boiled egg 🥚 to start your day strong.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01:09 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Mid-Morning Snack</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Grilled chicken and veggies 🍗</t>
+          <t>Hey there! Rahul here. It’s time for your mid-morning snack — have a handful of mixed nuts (almonds and walnuts) 🥜 and a glass of fresh fruit juice 🍊 to keep your energy up.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01:10 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Snack</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Handful of almonds 🥜</t>
+          <t>Hi! Rahul checking in. It’s lunchtime — enjoy some brown rice with homemade chicken curry 🍗, spinach or broccoli 🥦, and a refreshing cucumber salad 🥒 for a balanced meal.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01:11 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Afternoon Snack</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hello again! Rahul here. Time for your afternoon snack — treat yourself to some Greek yogurt or curd with a drizzle of honey 🍯 and a few seasonal fruits 🍎🍓.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05:55 PM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pre-Workout Snack</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hey! Rahul reminding you — it’s time for your pre-workout snack. Have a banana or apple 🍌🍎 with one scoop of whey protein, or a slice of peanut butter toast 🍞 for a quick energy boost.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Dinner</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Fish with brown rice 🥦</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Good evening! Rahul here. Dinner time — enjoy grilled fish or paneer, quinoa or whole wheat chapati 🌾, sautéed veggies 🥦🥕, and finish with a glass of milk 🥛 for recovery and rest.</t>
         </is>
       </c>
     </row>
